--- a/biology/Zoologie/Cryptorhynchus_lapathi/Cryptorhynchus_lapathi.xlsx
+++ b/biology/Zoologie/Cryptorhynchus_lapathi/Cryptorhynchus_lapathi.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cryptorhynchus lapathi, le charançon du saule, est une espèce d’insectes de l'ordre des Coléoptères, de la famille des Curculionidae, de la sous-famille des Molytinae (ou des Cryptorhynchinae selon les classifications).
 </t>
@@ -511,9 +523,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le corps gris-brunâtre, long de 5,6 à 8,3 mm[1], présente des sqamules claires à l'arrière.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le corps gris-brunâtre, long de 5,6 à 8,3 mm, présente des sqamules claires à l'arrière.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Holarctique, cette espèce est connue au Canada et aux États-Unis, mais son introduction à partir de l'Europe est incertaine[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Holarctique, cette espèce est connue au Canada et aux États-Unis, mais son introduction à partir de l'Europe est incertaine.
 En Europe, elle est largement distribuée.
 </t>
         </is>
@@ -574,7 +590,9 @@
           <t>Écologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">L'adulte vit sur divers arbres caducifoliés (saules, peupliers, bouleaux, aulnes).
 Les larves xylophages peuvent provoquer la mort de branches ou même de jeunes arbres.
